--- a/obesity/Massachusetts.xlsx
+++ b/obesity/Massachusetts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\OBPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/obesity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03DC7FF-DFFD-F44E-8226-910B99923B92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Massachusetts" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Massachusetts!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>Obesity Prevalence</t>
   </si>
@@ -143,11 +151,29 @@
   <si>
     <t>Worcester County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -858,7 +884,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,58 +946,64 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,93 +1280,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU18"/>
+  <dimension ref="A2:CB18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BZ9" sqref="BZ9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:80" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:80" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20"/>
@@ -1428,9 +1462,27 @@
       <c r="BR3" s="19"/>
       <c r="BS3" s="19"/>
       <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BU3" s="21"/>
+      <c r="BW3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1650,8 +1702,31 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="23">
+        <f>SUM(D5:D300)</f>
+        <v>928163</v>
+      </c>
+      <c r="BY4" s="23">
+        <f>AVERAGE(E5:E300)</f>
+        <v>19.092857142857138</v>
+      </c>
+      <c r="BZ4" s="23">
+        <f>AVERAGE(F5:F300)</f>
+        <v>16.564285714285713</v>
+      </c>
+      <c r="CA4" s="23">
+        <f>AVERAGE(G5:G300)</f>
+        <v>21.9</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>4861310.1384212505</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1871,8 +1946,31 @@
       <c r="BU5" s="11">
         <v>21.7</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>1002187</v>
+      </c>
+      <c r="BY5" s="23">
+        <f>AVERAGE(L5:L300)</f>
+        <v>20.635714285714283</v>
+      </c>
+      <c r="BZ5" s="23">
+        <f>AVERAGE(M5:M300)</f>
+        <v>18.092857142857145</v>
+      </c>
+      <c r="CA5" s="23">
+        <f>AVERAGE(N5:N300)</f>
+        <v>23.50714285714286</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>4856565.5936310152</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2092,8 +2190,31 @@
       <c r="BU6" s="11">
         <v>26.4</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="23">
+        <f>SUM(R5:R300)</f>
+        <v>1065829</v>
+      </c>
+      <c r="BY6" s="23">
+        <f>AVERAGE(S5:S300)</f>
+        <v>21.807142857142853</v>
+      </c>
+      <c r="BZ6" s="23">
+        <f>AVERAGE(T5:T300)</f>
+        <v>19.392857142857142</v>
+      </c>
+      <c r="CA6" s="23">
+        <f>AVERAGE(U5:U300)</f>
+        <v>24.485714285714288</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>4887522.4369472656</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2313,8 +2434,31 @@
       <c r="BU7" s="11">
         <v>29.4</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="23">
+        <f>SUM(Y5:Y300)</f>
+        <v>1087942</v>
+      </c>
+      <c r="BY7" s="23">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>22.107142857142858</v>
+      </c>
+      <c r="BZ7" s="23">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>19.828571428571426</v>
+      </c>
+      <c r="CA7" s="23">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>24.592857142857145</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>4921223.9095315021</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2534,8 +2678,31 @@
       <c r="BU8" s="11">
         <v>26.7</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>1112624</v>
+      </c>
+      <c r="BY8" s="23">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>22.421428571428574</v>
+      </c>
+      <c r="BZ8" s="23">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>20.192857142857147</v>
+      </c>
+      <c r="CA8" s="23">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>24.87857142857143</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>4962324.3071041731</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2755,8 +2922,31 @@
       <c r="BU9" s="11">
         <v>26.2</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="23">
+        <f>SUM(AM5:AM300)</f>
+        <v>1173025</v>
+      </c>
+      <c r="BY9" s="23">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>23.24285714285714</v>
+      </c>
+      <c r="BZ9" s="23">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>21.092857142857138</v>
+      </c>
+      <c r="CA9" s="23">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>25.521428571428569</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>5046819.2993239099</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2976,8 +3166,31 @@
       <c r="BU10" s="11">
         <v>23.8</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="23">
+        <f>SUM(AT5:AT300)</f>
+        <v>1174618</v>
+      </c>
+      <c r="BY10" s="23">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>23.392857142857146</v>
+      </c>
+      <c r="BZ10" s="23">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>21.242857142857144</v>
+      </c>
+      <c r="CA10" s="23">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>25.678571428571423</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>5021267.7862595413</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3197,8 +3410,31 @@
       <c r="BU11" s="11">
         <v>29.1</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>1190544</v>
+      </c>
+      <c r="BY11" s="23">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>23.2</v>
+      </c>
+      <c r="BZ11" s="23">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>21.164285714285711</v>
+      </c>
+      <c r="CA11" s="23">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>25.399999999999995</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>5131655.1724137934</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3418,8 +3654,31 @@
       <c r="BU12" s="11">
         <v>21.4</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="23">
+        <f>SUM(BH5:BH300)</f>
+        <v>1193048</v>
+      </c>
+      <c r="BY12" s="23">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>23.157142857142862</v>
+      </c>
+      <c r="BZ12" s="23">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>21.092857142857145</v>
+      </c>
+      <c r="CA12" s="23">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>25.392857142857146</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>5151965.4534238111</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3639,8 +3898,31 @@
       <c r="BU13" s="11">
         <v>23.2</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="23">
+        <f>SUM(BO5:BO300)</f>
+        <v>1229148</v>
+      </c>
+      <c r="BY13" s="23">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>23.54615384615385</v>
+      </c>
+      <c r="BZ13" s="23">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>21.423076923076923</v>
+      </c>
+      <c r="CA13" s="23">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>25.884615384615383</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>5220164.6520744851</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -3861,7 +4143,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4082,7 +4364,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -4303,7 +4585,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -4524,7 +4806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -4747,17 +5029,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="BO3:BU3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
